--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_18-17.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_18-17.xlsx
@@ -314,58 +314,55 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>-5:0</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه افوفا 5 قطع</t>
+  </si>
+  <si>
+    <t>محلول خليط</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب صغيره</t>
+  </si>
+  <si>
     <t>18:0</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>-2:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-5:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه افوفا 5 قطع</t>
-  </si>
-  <si>
-    <t>محلول خليط</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>مناديل سولو سحب</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
     <t>مناديل مبلله كبيره</t>
@@ -2849,7 +2846,7 @@
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2995,13 +2992,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
@@ -3013,7 +3010,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3027,11 +3024,11 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3039,7 +3036,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3047,17 +3044,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3079,11 +3076,11 @@
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3105,7 +3102,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
@@ -3125,13 +3122,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
@@ -3139,63 +3136,37 @@
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
-      <c r="A88" s="6">
-        <v>85</v>
-      </c>
-      <c t="s" r="B88" s="7">
-        <v>119</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c t="s" r="H88" s="8">
+      <c r="K88" s="11">
+        <v>5170.9399999999996</v>
+      </c>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+    </row>
+    <row r="89" ht="17.25" customHeight="1">
+      <c t="s" r="A89" s="12">
         <v>120</v>
       </c>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9">
-        <v>30</v>
-      </c>
-      <c r="M88" s="9"/>
-      <c r="N88" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="K89" s="11">
-        <v>5185.9399999999996</v>
-      </c>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="12">
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c t="s" r="F89" s="13">
         <v>121</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c t="s" r="F90" s="13">
+      <c r="G89" s="13"/>
+      <c r="H89" s="14"/>
+      <c t="s" r="I89" s="15">
         <v>122</v>
       </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
-      <c t="s" r="I90" s="15">
-        <v>123</v>
-      </c>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="266">
+  <mergeCells count="263">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3455,13 +3426,10 @@
     <mergeCell ref="B87:G87"/>
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="I90:N90"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="I89:N89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
